--- a/data/DCP-HDB/Housing_Database_Data_Dictionary (1).xlsx
+++ b/data/DCP-HDB/Housing_Database_Data_Dictionary (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GIS\BytesProduction\Housing_Dev_DB\_metadata_staging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatianakalainoff/Documents/GitHub/gowanus-rezoning/data/DCP-HDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB587EC-2F72-4DE0-9413-21BE546ECAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A721BCD4-78E1-C349-8960-14E3DE0103CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Information" sheetId="1" r:id="rId1"/>
@@ -2779,8 +2779,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="120">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2804,7 +2804,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2906,14 +2905,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2924,8 +2917,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2947,7 +2939,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2956,14 +2948,8 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2980,17 +2966,14 @@
     <xf numFmtId="0" fontId="31" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3000,7 +2983,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3320,27 +3303,27 @@
   </sheetPr>
   <dimension ref="A1:V1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" customWidth="1"/>
+    <col min="3" max="3" width="26.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94"/>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -3359,11 +3342,11 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -3382,11 +3365,11 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3405,11 +3388,11 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="97"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3428,11 +3411,11 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="97"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="99"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3451,11 +3434,11 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="99"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3474,11 +3457,11 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3496,14 +3479,14 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3525,12 +3508,12 @@
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="108"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3553,12 +3536,12 @@
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="100" t="s">
         <v>359</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="99"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3581,12 +3564,12 @@
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3609,12 +3592,12 @@
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="78" t="s">
         <v>352</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="5"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3633,16 +3616,16 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="54" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
       <c r="F13" s="5"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3665,12 +3648,12 @@
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="5"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3693,10 +3676,10 @@
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
       <c r="F15" s="5"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3719,12 +3702,12 @@
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="101" t="s">
         <v>381</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3747,12 +3730,12 @@
       <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="78" t="s">
         <v>353</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3775,12 +3758,12 @@
       <c r="A18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -3803,12 +3786,12 @@
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="78" t="s">
         <v>355</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -3831,12 +3814,12 @@
       <c r="A20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -3859,16 +3842,16 @@
       <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="93"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3883,12 +3866,12 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -3907,12 +3890,12 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -3931,12 +3914,12 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -3955,12 +3938,12 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+    <row r="25" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3979,773 +3962,773 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-    </row>
-    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-    </row>
-    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-    </row>
-    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-    </row>
-    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-    </row>
-    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-    </row>
-    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-    </row>
-    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-    </row>
-    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-    </row>
-    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-    </row>
-    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-    </row>
-    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-    </row>
-    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-    </row>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-    </row>
-    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-    </row>
-    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+    </row>
+    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+    </row>
+    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+    </row>
+    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+    </row>
+    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+    </row>
+    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+    </row>
+    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+    </row>
+    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+    </row>
+    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+    </row>
+    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+    </row>
+    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="17"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-    </row>
-    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+    </row>
+    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="17"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-    </row>
-    <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+    </row>
+    <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="15"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="17"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-    </row>
-    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+    </row>
+    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="17"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="15"/>
-      <c r="V50" s="15"/>
-    </row>
-    <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+    </row>
+    <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="17"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-    </row>
-    <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+    </row>
+    <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="15"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="17"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-    </row>
-    <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+    </row>
+    <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="15"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="17"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-    </row>
-    <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+    </row>
+    <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="17"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-    </row>
-    <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+    </row>
+    <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="17"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-    </row>
-    <row r="56" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+    </row>
+    <row r="56" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="17"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
-      <c r="U56" s="15"/>
-      <c r="V56" s="15"/>
-    </row>
-    <row r="57" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+    </row>
+    <row r="57" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="15"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="17"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
     </row>
     <row r="58" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
@@ -9520,1941 +9503,1941 @@
   </sheetPr>
   <dimension ref="A1:X1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" customWidth="1"/>
+    <col min="2" max="2" width="40.3984375" customWidth="1"/>
+    <col min="3" max="3" width="44.19921875" customWidth="1"/>
+    <col min="4" max="4" width="51.59765625" customWidth="1"/>
+    <col min="5" max="5" width="40.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="113"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="104"/>
     </row>
     <row r="2" spans="1:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:24" ht="168" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-    </row>
-    <row r="4" spans="1:24" ht="108" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+    </row>
+    <row r="4" spans="1:24" ht="130" x14ac:dyDescent="0.2">
+      <c r="A4" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-    </row>
-    <row r="5" spans="1:24" ht="228" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+    </row>
+    <row r="5" spans="1:24" ht="260" x14ac:dyDescent="0.2">
+      <c r="A5" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-    </row>
-    <row r="6" spans="1:24" ht="120" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+    </row>
+    <row r="6" spans="1:24" ht="143" x14ac:dyDescent="0.2">
+      <c r="A6" s="62" t="s">
         <v>367</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="66" t="s">
+      <c r="C6" s="66"/>
+      <c r="D6" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-    </row>
-    <row r="7" spans="1:24" ht="156" x14ac:dyDescent="0.2">
-      <c r="A7" s="66" t="s">
+      <c r="E6" s="66"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+    </row>
+    <row r="7" spans="1:24" ht="169" x14ac:dyDescent="0.2">
+      <c r="A7" s="62" t="s">
         <v>368</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="66" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-    </row>
-    <row r="8" spans="1:24" ht="228" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="E7" s="66"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+    </row>
+    <row r="8" spans="1:24" ht="272" x14ac:dyDescent="0.2">
+      <c r="A8" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="70" t="s">
         <v>296</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="75" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="71" t="s">
         <v>298</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-    </row>
-    <row r="9" spans="1:24" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="66" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+    </row>
+    <row r="9" spans="1:24" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A9" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="66" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-    </row>
-    <row r="10" spans="1:24" ht="60" x14ac:dyDescent="0.2">
-      <c r="A10" s="66" t="s">
+      <c r="E9" s="66"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+    </row>
+    <row r="10" spans="1:24" ht="78" x14ac:dyDescent="0.2">
+      <c r="A10" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-    </row>
-    <row r="11" spans="1:24" ht="24" x14ac:dyDescent="0.2">
-      <c r="A11" s="66" t="s">
+      <c r="E10" s="66"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+    </row>
+    <row r="11" spans="1:24" ht="26" x14ac:dyDescent="0.2">
+      <c r="A11" s="62" t="s">
         <v>370</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="66"/>
+      <c r="D11" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-    </row>
-    <row r="12" spans="1:24" ht="144" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="s">
+      <c r="E11" s="66"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+    </row>
+    <row r="12" spans="1:24" ht="169" x14ac:dyDescent="0.2">
+      <c r="A12" s="62" t="s">
         <v>371</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="66" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-    </row>
-    <row r="13" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="66" t="s">
+      <c r="E12" s="66"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+    </row>
+    <row r="13" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A13" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="66" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-    </row>
-    <row r="14" spans="1:24" ht="36" x14ac:dyDescent="0.2">
-      <c r="A14" s="66" t="s">
+      <c r="E13" s="66"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+    </row>
+    <row r="14" spans="1:24" ht="39" x14ac:dyDescent="0.2">
+      <c r="A14" s="62" t="s">
         <v>373</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="66" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-    </row>
-    <row r="15" spans="1:24" ht="84" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+    </row>
+    <row r="15" spans="1:24" ht="91" x14ac:dyDescent="0.2">
+      <c r="A15" s="62" t="s">
         <v>374</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="66" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-    </row>
-    <row r="16" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="66" t="s">
+      <c r="E15" s="66"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+    </row>
+    <row r="16" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A16" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="66" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-    </row>
-    <row r="17" spans="1:24" ht="180" x14ac:dyDescent="0.2">
-      <c r="A17" s="66" t="s">
+      <c r="E16" s="66"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+    </row>
+    <row r="17" spans="1:24" ht="208" x14ac:dyDescent="0.2">
+      <c r="A17" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="66" t="s">
+      <c r="C17" s="66"/>
+      <c r="D17" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-    </row>
-    <row r="18" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="66" t="s">
+      <c r="E17" s="66"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+    </row>
+    <row r="18" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A18" s="62" t="s">
         <v>376</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="66" t="s">
+      <c r="C18" s="66"/>
+      <c r="D18" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-    </row>
-    <row r="19" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="66" t="s">
+      <c r="E18" s="66"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+    </row>
+    <row r="19" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A19" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="66" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-    </row>
-    <row r="20" spans="1:24" ht="60" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
+      <c r="E19" s="66"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+    </row>
+    <row r="20" spans="1:24" ht="65" x14ac:dyDescent="0.2">
+      <c r="A20" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="62" t="s">
         <v>356</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-    </row>
-    <row r="21" spans="1:24" ht="36" x14ac:dyDescent="0.2">
-      <c r="A21" s="66" t="s">
+      <c r="D20" s="62"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+    </row>
+    <row r="21" spans="1:24" ht="39" x14ac:dyDescent="0.2">
+      <c r="A21" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="62" t="s">
         <v>357</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-    </row>
-    <row r="22" spans="1:24" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="66" t="s">
+      <c r="D21" s="62"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+    </row>
+    <row r="22" spans="1:24" ht="39" x14ac:dyDescent="0.2">
+      <c r="A22" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-    </row>
-    <row r="23" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="66" t="s">
+      <c r="C22" s="66"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+    </row>
+    <row r="23" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A23" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="66" t="s">
+      <c r="C23" s="66"/>
+      <c r="D23" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-    </row>
-    <row r="24" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24" s="66" t="s">
+      <c r="E23" s="66"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+    </row>
+    <row r="24" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A24" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="66" t="s">
+      <c r="C24" s="66"/>
+      <c r="D24" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-    </row>
-    <row r="25" spans="1:24" ht="120" x14ac:dyDescent="0.2">
-      <c r="A25" s="66" t="s">
+      <c r="E24" s="66"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+    </row>
+    <row r="25" spans="1:24" ht="143" x14ac:dyDescent="0.2">
+      <c r="A25" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="66" t="s">
+      <c r="C25" s="66"/>
+      <c r="D25" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-    </row>
-    <row r="26" spans="1:24" ht="120" x14ac:dyDescent="0.2">
-      <c r="A26" s="66" t="s">
+      <c r="E25" s="66"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+    </row>
+    <row r="26" spans="1:24" ht="143" x14ac:dyDescent="0.2">
+      <c r="A26" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="66" t="s">
+      <c r="C26" s="66"/>
+      <c r="D26" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-    </row>
-    <row r="27" spans="1:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="66" t="s">
+      <c r="E26" s="66"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+    </row>
+    <row r="27" spans="1:24" ht="60" x14ac:dyDescent="0.2">
+      <c r="A27" s="62" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="73" t="s">
         <v>341</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-    </row>
-    <row r="28" spans="1:24" ht="72" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+    </row>
+    <row r="28" spans="1:24" ht="78" x14ac:dyDescent="0.2">
+      <c r="A28" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="66" t="s">
+      <c r="C28" s="66"/>
+      <c r="D28" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-    </row>
-    <row r="29" spans="1:24" ht="72" x14ac:dyDescent="0.2">
-      <c r="A29" s="66" t="s">
+      <c r="E28" s="66"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+    </row>
+    <row r="29" spans="1:24" ht="78" x14ac:dyDescent="0.2">
+      <c r="A29" s="62" t="s">
         <v>303</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="66" t="s">
+      <c r="C29" s="66"/>
+      <c r="D29" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-    </row>
-    <row r="30" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30" s="66" t="s">
+      <c r="E29" s="66"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+    </row>
+    <row r="30" spans="1:24" ht="65" x14ac:dyDescent="0.2">
+      <c r="A30" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="66" t="s">
+      <c r="C30" s="66"/>
+      <c r="D30" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="E30" s="70"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-    </row>
-    <row r="31" spans="1:24" ht="24" x14ac:dyDescent="0.2">
-      <c r="A31" s="66" t="s">
+      <c r="E30" s="66"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+    </row>
+    <row r="31" spans="1:24" ht="26" x14ac:dyDescent="0.2">
+      <c r="A31" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="66" t="s">
+      <c r="C31" s="66"/>
+      <c r="D31" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-    </row>
-    <row r="32" spans="1:24" ht="144" x14ac:dyDescent="0.2">
-      <c r="A32" s="66" t="s">
+      <c r="E31" s="66"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+    </row>
+    <row r="32" spans="1:24" ht="169" x14ac:dyDescent="0.2">
+      <c r="A32" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="66" t="s">
+      <c r="C32" s="66"/>
+      <c r="D32" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="E32" s="70"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-    </row>
-    <row r="33" spans="1:24" ht="60" x14ac:dyDescent="0.2">
-      <c r="A33" s="66" t="s">
+      <c r="E32" s="66"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+    </row>
+    <row r="33" spans="1:24" ht="65" x14ac:dyDescent="0.2">
+      <c r="A33" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="66" t="s">
+      <c r="C33" s="66"/>
+      <c r="D33" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="E33" s="70"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-    </row>
-    <row r="34" spans="1:24" ht="24" x14ac:dyDescent="0.2">
-      <c r="A34" s="66" t="s">
+      <c r="E33" s="66"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+    </row>
+    <row r="34" spans="1:24" ht="26" x14ac:dyDescent="0.2">
+      <c r="A34" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="66" t="s">
+      <c r="C34" s="66"/>
+      <c r="D34" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="E34" s="70"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-    </row>
-    <row r="35" spans="1:24" ht="24" x14ac:dyDescent="0.2">
-      <c r="A35" s="66" t="s">
+      <c r="E34" s="66"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+    </row>
+    <row r="35" spans="1:24" ht="26" x14ac:dyDescent="0.2">
+      <c r="A35" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="66" t="s">
+      <c r="C35" s="68"/>
+      <c r="D35" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-    </row>
-    <row r="36" spans="1:24" ht="84" x14ac:dyDescent="0.2">
-      <c r="A36" s="66" t="s">
+      <c r="E35" s="68"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+    </row>
+    <row r="36" spans="1:24" ht="104" x14ac:dyDescent="0.2">
+      <c r="A36" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="66" t="s">
+      <c r="C36" s="68"/>
+      <c r="D36" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="E36" s="72"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-    </row>
-    <row r="37" spans="1:24" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="66" t="s">
+      <c r="E36" s="68"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+    </row>
+    <row r="37" spans="1:24" ht="26" x14ac:dyDescent="0.2">
+      <c r="A37" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="66" t="s">
+      <c r="C37" s="68"/>
+      <c r="D37" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="E37" s="72"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-    </row>
-    <row r="38" spans="1:24" ht="36" x14ac:dyDescent="0.2">
-      <c r="A38" s="66" t="s">
+      <c r="E37" s="68"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+    </row>
+    <row r="38" spans="1:24" ht="39" x14ac:dyDescent="0.2">
+      <c r="A38" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="66" t="s">
+      <c r="C38" s="68"/>
+      <c r="D38" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="E38" s="72"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-    </row>
-    <row r="39" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A39" s="66" t="s">
+      <c r="E38" s="68"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+    </row>
+    <row r="39" spans="1:24" ht="65" x14ac:dyDescent="0.2">
+      <c r="A39" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="66" t="s">
+      <c r="C39" s="68"/>
+      <c r="D39" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="E39" s="72"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-    </row>
-    <row r="40" spans="1:24" ht="60" x14ac:dyDescent="0.2">
-      <c r="A40" s="66" t="s">
+      <c r="E39" s="68"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+    </row>
+    <row r="40" spans="1:24" ht="65" x14ac:dyDescent="0.2">
+      <c r="A40" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="66" t="s">
+      <c r="C40" s="68"/>
+      <c r="D40" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="E40" s="72"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-    </row>
-    <row r="41" spans="1:24" ht="96" x14ac:dyDescent="0.2">
-      <c r="A41" s="66" t="s">
+      <c r="E40" s="68"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+    </row>
+    <row r="41" spans="1:24" ht="104" x14ac:dyDescent="0.2">
+      <c r="A41" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="66" t="s">
+      <c r="C41" s="68"/>
+      <c r="D41" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="E41" s="72"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-    </row>
-    <row r="42" spans="1:24" ht="96" x14ac:dyDescent="0.2">
-      <c r="A42" s="66" t="s">
+      <c r="E41" s="68"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+    </row>
+    <row r="42" spans="1:24" ht="104" x14ac:dyDescent="0.2">
+      <c r="A42" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="66" t="s">
+      <c r="C42" s="68"/>
+      <c r="D42" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="E42" s="72"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-    </row>
-    <row r="43" spans="1:24" ht="24" x14ac:dyDescent="0.2">
-      <c r="A43" s="66" t="s">
+      <c r="E42" s="68"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+    </row>
+    <row r="43" spans="1:24" ht="26" x14ac:dyDescent="0.2">
+      <c r="A43" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="66" t="s">
+      <c r="C43" s="68"/>
+      <c r="D43" s="62" t="s">
         <v>313</v>
       </c>
-      <c r="E43" s="72"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-    </row>
-    <row r="44" spans="1:24" ht="24" x14ac:dyDescent="0.2">
-      <c r="A44" s="66" t="s">
+      <c r="E43" s="68"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+    </row>
+    <row r="44" spans="1:24" ht="26" x14ac:dyDescent="0.2">
+      <c r="A44" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="66" t="s">
+      <c r="C44" s="68"/>
+      <c r="D44" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-    </row>
-    <row r="45" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A45" s="66" t="s">
+      <c r="E44" s="68"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+    </row>
+    <row r="45" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A45" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="62" t="s">
         <v>318</v>
       </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="66" t="s">
+      <c r="C45" s="68"/>
+      <c r="D45" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="E45" s="72"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-    </row>
-    <row r="46" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A46" s="66" t="s">
+      <c r="E45" s="68"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+    </row>
+    <row r="46" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A46" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="66" t="s">
+      <c r="C46" s="68"/>
+      <c r="D46" s="62" t="s">
         <v>280</v>
       </c>
-      <c r="E46" s="72"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-    </row>
-    <row r="47" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A47" s="66" t="s">
+      <c r="E46" s="68"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+    </row>
+    <row r="47" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A47" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="66" t="s">
+      <c r="C47" s="68"/>
+      <c r="D47" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="E47" s="72"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-    </row>
-    <row r="48" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A48" s="66" t="s">
+      <c r="E47" s="68"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+    </row>
+    <row r="48" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A48" s="62" t="s">
         <v>324</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="66" t="s">
+      <c r="C48" s="68"/>
+      <c r="D48" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="E48" s="72"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
-    </row>
-    <row r="49" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A49" s="66" t="s">
+      <c r="E48" s="68"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+    </row>
+    <row r="49" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A49" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="66" t="s">
+      <c r="C49" s="68"/>
+      <c r="D49" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="E49" s="72"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="29"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="29"/>
-    </row>
-    <row r="50" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A50" s="66" t="s">
+      <c r="E49" s="68"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+    </row>
+    <row r="50" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A50" s="62" t="s">
         <v>326</v>
       </c>
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="66" t="s">
+      <c r="C50" s="68"/>
+      <c r="D50" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="E50" s="72"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-    </row>
-    <row r="51" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A51" s="66" t="s">
+      <c r="E50" s="68"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+    </row>
+    <row r="51" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A51" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="66" t="s">
+      <c r="C51" s="68"/>
+      <c r="D51" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="E51" s="72"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-    </row>
-    <row r="52" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A52" s="66" t="s">
+      <c r="E51" s="68"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+    </row>
+    <row r="52" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A52" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="B52" s="66" t="s">
+      <c r="B52" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="66" t="s">
+      <c r="C52" s="68"/>
+      <c r="D52" s="62" t="s">
         <v>331</v>
       </c>
-      <c r="E52" s="72"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-    </row>
-    <row r="53" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A53" s="66" t="s">
+      <c r="E52" s="68"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+    </row>
+    <row r="53" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A53" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="66" t="s">
+      <c r="C53" s="68"/>
+      <c r="D53" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="E53" s="72"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-    </row>
-    <row r="54" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A54" s="66" t="s">
+      <c r="E53" s="68"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+    </row>
+    <row r="54" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A54" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="66" t="s">
+      <c r="C54" s="68"/>
+      <c r="D54" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="29"/>
-      <c r="U54" s="29"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="29"/>
-      <c r="X54" s="29"/>
-    </row>
-    <row r="55" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A55" s="66" t="s">
+      <c r="E54" s="68"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+    </row>
+    <row r="55" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A55" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="C55" s="72"/>
-      <c r="D55" s="66" t="s">
+      <c r="C55" s="68"/>
+      <c r="D55" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="E55" s="72"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29"/>
-    </row>
-    <row r="56" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A56" s="66" t="s">
+      <c r="E55" s="68"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+    </row>
+    <row r="56" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A56" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="C56" s="72"/>
-      <c r="D56" s="66" t="s">
+      <c r="C56" s="68"/>
+      <c r="D56" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="E56" s="72"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-    </row>
-    <row r="57" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A57" s="66" t="s">
+      <c r="E56" s="68"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+    </row>
+    <row r="57" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A57" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="72"/>
-      <c r="D57" s="66" t="s">
+      <c r="C57" s="68"/>
+      <c r="D57" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="E57" s="72"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="29"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29"/>
-    </row>
-    <row r="58" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A58" s="66" t="s">
+      <c r="E57" s="68"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+    </row>
+    <row r="58" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A58" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="B58" s="66" t="s">
+      <c r="B58" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="C58" s="73"/>
-      <c r="D58" s="66" t="s">
+      <c r="C58" s="69"/>
+      <c r="D58" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="E58" s="73"/>
-    </row>
-    <row r="59" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A59" s="66" t="s">
+      <c r="E58" s="69"/>
+    </row>
+    <row r="59" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A59" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="73"/>
-      <c r="D59" s="66" t="s">
+      <c r="C59" s="69"/>
+      <c r="D59" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="E59" s="73"/>
-    </row>
-    <row r="60" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A60" s="66" t="s">
+      <c r="E59" s="69"/>
+    </row>
+    <row r="60" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+      <c r="A60" s="62" t="s">
         <v>335</v>
       </c>
-      <c r="B60" s="66" t="s">
+      <c r="B60" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="73"/>
-      <c r="D60" s="66" t="s">
+      <c r="C60" s="69"/>
+      <c r="D60" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="E60" s="73"/>
-    </row>
-    <row r="61" spans="1:24" ht="72" x14ac:dyDescent="0.2">
-      <c r="A61" s="66" t="s">
+      <c r="E60" s="69"/>
+    </row>
+    <row r="61" spans="1:24" ht="91" x14ac:dyDescent="0.2">
+      <c r="A61" s="62" t="s">
         <v>336</v>
       </c>
-      <c r="B61" s="66" t="s">
+      <c r="B61" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="C61" s="73"/>
-      <c r="D61" s="66" t="s">
+      <c r="C61" s="69"/>
+      <c r="D61" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="E61" s="77" t="s">
+      <c r="E61" s="72" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="72" x14ac:dyDescent="0.2">
-      <c r="A62" s="66" t="s">
+    <row r="62" spans="1:24" ht="91" x14ac:dyDescent="0.2">
+      <c r="A62" s="62" t="s">
         <v>337</v>
       </c>
-      <c r="B62" s="66" t="s">
+      <c r="B62" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="C62" s="73"/>
-      <c r="D62" s="66" t="s">
+      <c r="C62" s="69"/>
+      <c r="D62" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="E62" s="77" t="s">
+      <c r="E62" s="72" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="156" x14ac:dyDescent="0.2">
-      <c r="A63" s="66" t="s">
+    <row r="63" spans="1:24" ht="182" x14ac:dyDescent="0.2">
+      <c r="A63" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="66" t="s">
+      <c r="C63" s="69"/>
+      <c r="D63" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="E63" s="73"/>
-    </row>
-    <row r="64" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="66" t="s">
+      <c r="E63" s="69"/>
+    </row>
+    <row r="64" spans="1:24" ht="14" x14ac:dyDescent="0.2">
+      <c r="A64" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="B64" s="66" t="s">
+      <c r="B64" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="C64" s="73"/>
-      <c r="D64" s="66" t="s">
+      <c r="C64" s="69"/>
+      <c r="D64" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="E64" s="73"/>
-    </row>
-    <row r="65" spans="1:5" ht="228" x14ac:dyDescent="0.2">
-      <c r="A65" s="66" t="s">
+      <c r="E64" s="69"/>
+    </row>
+    <row r="65" spans="1:5" ht="247" x14ac:dyDescent="0.2">
+      <c r="A65" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="B65" s="66" t="s">
+      <c r="B65" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="C65" s="73"/>
-      <c r="D65" s="66" t="s">
+      <c r="C65" s="69"/>
+      <c r="D65" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="E65" s="73"/>
-    </row>
-    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A66" s="66" t="s">
+      <c r="E65" s="69"/>
+    </row>
+    <row r="66" spans="1:5" ht="65" x14ac:dyDescent="0.2">
+      <c r="A66" s="62" t="s">
         <v>339</v>
       </c>
-      <c r="B66" s="66" t="s">
+      <c r="B66" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="C66" s="73"/>
-      <c r="D66" s="66" t="s">
+      <c r="C66" s="69"/>
+      <c r="D66" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="E66" s="73"/>
+      <c r="E66" s="69"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="66" t="s">
+      <c r="A67" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="B67" s="66" t="s">
+      <c r="B67" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12417,307 +12400,305 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="84" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" customWidth="1"/>
+    <col min="1" max="3" width="21.59765625" customWidth="1"/>
+    <col min="4" max="4" width="43.3984375" customWidth="1"/>
+    <col min="5" max="5" width="21.59765625" customWidth="1"/>
+    <col min="6" max="7" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:24" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:24" ht="14" x14ac:dyDescent="0.2">
+      <c r="A2" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="76" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="76" t="s">
         <v>364</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
     </row>
     <row r="5" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="76" t="s">
         <v>345</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="76" t="s">
         <v>343</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
     </row>
     <row r="6" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="74" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="74" t="s">
         <v>365</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
     </row>
     <row r="7" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="74" t="s">
         <v>361</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="74" t="s">
         <v>366</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
     </row>
     <row r="8" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="74" t="s">
         <v>382</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="74" t="s">
         <v>379</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
     </row>
     <row r="9" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
     </row>
     <row r="10" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
     </row>
     <row r="11" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
     </row>
     <row r="12" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-    </row>
-    <row r="13" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+    </row>
+    <row r="13" spans="1:24" ht="14" x14ac:dyDescent="0.2">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13720,27 +13701,27 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" customWidth="1"/>
+    <col min="3" max="3" width="26.3984375" customWidth="1"/>
+    <col min="4" max="5" width="14.3984375" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" customWidth="1"/>
+    <col min="7" max="7" width="50.59765625" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" customWidth="1"/>
+    <col min="9" max="9" width="26.3984375" customWidth="1"/>
+    <col min="10" max="11" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -13752,752 +13733,752 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:17" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="118" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="120"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="112" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="112" t="s">
         <v>349</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="119" t="s">
         <v>350</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
     </row>
     <row r="7" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
     </row>
     <row r="8" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="113" t="s">
         <v>349</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="15"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="62"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="15"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="59"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="60"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="13"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="13"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="16"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="17"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="16"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="17"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="16"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="17"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="16"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="17"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="16"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="16"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="17"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
+      <c r="A34" s="17"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
@@ -19239,173 +19220,173 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="61" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="61" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="61" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="61" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="61" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="61" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="61" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="61" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="61" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="61" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="61" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="61" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="61" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="61" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="61" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="61" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="61" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="61" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="61" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="43"/>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
-      <c r="C21" s="65"/>
+      <c r="A21" s="43"/>
+      <c r="C21" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19421,539 +19402,539 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.59765625" customWidth="1"/>
+    <col min="2" max="3" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64">
+      <c r="A1" s="61">
         <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="61" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="61" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="61" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="61" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="61" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="61" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="61" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="61" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="61" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="61" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="61" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="61" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="61" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="61" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="61" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="61" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="61" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="61" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="61" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="61" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="61" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="61" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="61" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="61" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="61" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="61" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="61" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="61" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="61" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="61" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="61" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="61" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="61" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="61" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="61" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="61" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="61" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="61" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="61" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="61" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="61" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="64" t="s">
+      <c r="A43" s="61" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="61" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="61" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="61" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="61" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="61" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="61" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="61" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="61" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="61" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="61" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="64" t="s">
+      <c r="A54" s="61" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="64" t="s">
+      <c r="A55" s="61" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="64" t="s">
+      <c r="A56" s="61" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="64" t="s">
+      <c r="A57" s="61" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="61" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="61" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="64" t="s">
+      <c r="A60" s="61" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="64" t="s">
+      <c r="A61" s="61" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="64" t="s">
+      <c r="A62" s="61" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="61" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="64" t="s">
+      <c r="A64" s="61" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="64" t="s">
+      <c r="A65" s="61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="64" t="s">
+      <c r="A66" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="64" t="s">
+      <c r="A67" s="61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="64" t="s">
+      <c r="A68" s="61" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="64" t="s">
+      <c r="A69" s="61" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="64" t="s">
+      <c r="A70" s="61" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="64" t="s">
+      <c r="A71" s="61" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="64" t="s">
+      <c r="A72" s="61" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="64" t="s">
+      <c r="A73" s="61" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="64" t="s">
+      <c r="A74" s="61" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="64" t="s">
+      <c r="A75" s="61" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="61" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="64" t="s">
+      <c r="A77" s="61" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="64" t="s">
+      <c r="A78" s="61" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="64" t="s">
+      <c r="A79" s="61" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="64" t="s">
+      <c r="A80" s="61" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="64" t="s">
+      <c r="A81" s="61" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="64" t="s">
+      <c r="A82" s="61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="64" t="s">
+      <c r="A83" s="61" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="64" t="s">
+      <c r="A84" s="61" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="64" t="s">
+      <c r="A85" s="61" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="64" t="s">
+      <c r="A86" s="61" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="64" t="s">
+      <c r="A87" s="61" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="61" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="64" t="s">
+      <c r="A89" s="61" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="64" t="s">
+      <c r="A90" s="61" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="64" t="s">
+      <c r="A91" s="61" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="64" t="s">
+      <c r="A92" s="61" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="64" t="s">
+      <c r="A93" s="61" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="64" t="s">
+      <c r="A94" s="61" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="64" t="s">
+      <c r="A95" s="61" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="64" t="s">
+      <c r="A96" s="61" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="64" t="s">
+      <c r="A97" s="61" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="64" t="s">
+      <c r="A98" s="61" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="64" t="s">
+      <c r="A99" s="61" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="64" t="s">
+      <c r="A100" s="61" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="64" t="s">
+      <c r="A101" s="61" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="64" t="s">
+      <c r="A102" s="61" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="64" t="s">
+      <c r="A103" s="61" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="64" t="s">
+      <c r="A104" s="61" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="64" t="s">
+      <c r="A105" s="61" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="64" t="s">
+      <c r="A106" s="61" t="s">
         <v>162</v>
       </c>
     </row>
@@ -20866,38 +20847,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="61" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="61" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="61" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="61" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="61" t="s">
         <v>168</v>
       </c>
     </row>
